--- a/results/mp/tinybert/corona/confidence/126/topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,88 +49,88 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
@@ -139,13 +139,37 @@
     <t>store</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>the</t>
@@ -506,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -575,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,16 +620,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -617,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -625,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7337662337662337</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C4">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.351931330472103</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,13 +717,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>151</v>
+        <v>402</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
         <v>30</v>
@@ -717,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K6">
         <v>0.875</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,45 +791,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L7">
         <v>66</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>35</v>
-      </c>
       <c r="M7">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,45 +817,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.162962962962963</v>
-      </c>
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>113</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,45 +843,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>96</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8627450980392157</v>
+        <v>0.765625</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,21 +869,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,21 +895,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,21 +921,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7586206896551724</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -995,21 +947,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7450980392156863</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7307692307692307</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1073,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7123287671232876</v>
+        <v>0.6625</v>
       </c>
       <c r="L16">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,47 +1051,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.68</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>17</v>
-      </c>
-      <c r="M17">
-        <v>17</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1151,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5352112676056338</v>
+        <v>0.58</v>
       </c>
       <c r="L21">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5333333333333333</v>
+        <v>0.5625</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1255,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5208333333333334</v>
+        <v>0.5274151436031331</v>
       </c>
       <c r="L23">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="M23">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>69</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4651162790697674</v>
+        <v>0.488235294117647</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1307,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>69</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4571428571428571</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.391304347826087</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.04634146341463415</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>391</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.03070175438596491</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,47 +1363,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>442</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.01577287066246057</v>
+        <v>0.3807531380753138</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="N29">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>936</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.04809843400447427</v>
+      </c>
+      <c r="L30">
         <v>43</v>
       </c>
-      <c r="K30">
-        <v>0.01246660730186999</v>
-      </c>
-      <c r="L30">
-        <v>14</v>
-      </c>
       <c r="M30">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1463,33 +1415,319 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1109</v>
+        <v>851</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.03343465045592705</v>
+      </c>
+      <c r="L31">
+        <v>33</v>
+      </c>
+      <c r="M31">
+        <v>35</v>
+      </c>
+      <c r="N31">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.03329633740288569</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.025</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K31">
-        <v>0.007038712921065862</v>
-      </c>
-      <c r="L31">
-        <v>14</v>
-      </c>
-      <c r="M31">
-        <v>14</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>1975</v>
+      <c r="K34">
+        <v>0.01799100449775112</v>
+      </c>
+      <c r="L34">
+        <v>48</v>
+      </c>
+      <c r="M34">
+        <v>53</v>
+      </c>
+      <c r="N34">
+        <v>0.91</v>
+      </c>
+      <c r="O34">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35">
+        <v>0.01695979899497487</v>
+      </c>
+      <c r="L35">
+        <v>27</v>
+      </c>
+      <c r="M35">
+        <v>29</v>
+      </c>
+      <c r="N35">
+        <v>0.93</v>
+      </c>
+      <c r="O35">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36">
+        <v>0.01678264428980761</v>
+      </c>
+      <c r="L36">
+        <v>41</v>
+      </c>
+      <c r="M36">
+        <v>43</v>
+      </c>
+      <c r="N36">
+        <v>0.95</v>
+      </c>
+      <c r="O36">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37">
+        <v>0.0134850400337126</v>
+      </c>
+      <c r="L37">
+        <v>32</v>
+      </c>
+      <c r="M37">
+        <v>38</v>
+      </c>
+      <c r="N37">
+        <v>0.84</v>
+      </c>
+      <c r="O37">
+        <v>0.16</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38">
+        <v>0.01168224299065421</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>28</v>
+      </c>
+      <c r="N38">
+        <v>0.89</v>
+      </c>
+      <c r="O38">
+        <v>0.11</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39">
+        <v>0.01162790697674419</v>
+      </c>
+      <c r="L39">
+        <v>58</v>
+      </c>
+      <c r="M39">
+        <v>66</v>
+      </c>
+      <c r="N39">
+        <v>0.88</v>
+      </c>
+      <c r="O39">
+        <v>0.12</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>0.01132686084142395</v>
+      </c>
+      <c r="L40">
+        <v>49</v>
+      </c>
+      <c r="M40">
+        <v>51</v>
+      </c>
+      <c r="N40">
+        <v>0.96</v>
+      </c>
+      <c r="O40">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41">
+        <v>0.0106280193236715</v>
+      </c>
+      <c r="L41">
+        <v>33</v>
+      </c>
+      <c r="M41">
+        <v>35</v>
+      </c>
+      <c r="N41">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O41">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42">
+        <v>0.007553747821034283</v>
+      </c>
+      <c r="L42">
+        <v>39</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>0.95</v>
+      </c>
+      <c r="O42">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>5124</v>
       </c>
     </row>
   </sheetData>
